--- a/3/CHISLO_DOCTORS.xlsx
+++ b/3/CHISLO_DOCTORS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\LABORATORKI\data_lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROfl\Desktop\MS\MatStat\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A1C3F-393D-44E6-9B85-4ABF3F759689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9864" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSSTAT" sheetId="1" r:id="rId1"/>
-    <sheet name="List_3" sheetId="5" r:id="rId2"/>
-    <sheet name="DATA" sheetId="2" r:id="rId3"/>
-    <sheet name="FO_2" sheetId="7" r:id="rId4"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="FO_2" sheetId="7" r:id="rId3"/>
+    <sheet name="List_3" sheetId="5" r:id="rId4"/>
     <sheet name="FO_1" sheetId="4" r:id="rId5"/>
     <sheet name="List_4" sheetId="6" r:id="rId6"/>
     <sheet name="ITOG" sheetId="3" r:id="rId7"/>
@@ -418,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,10 +555,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +567,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,19 +577,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,7 +641,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -768,7 +768,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1027,7 +1026,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,7 +1113,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1374,7 +1371,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3374,7 +3370,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3404,7 +3406,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3439,7 +3447,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3458,9 +3472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3498,9 +3512,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3535,7 +3549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3570,7 +3584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3743,30 +3757,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="14" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -3786,7 +3800,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="11">
         <v>2005</v>
@@ -3828,7 +3842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3902,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4228,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -4302,7 +4316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4434,7 +4448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4522,7 +4536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -4566,7 +4580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -4654,7 +4668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -4698,7 +4712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4786,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -4848,7 +4862,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4892,7 +4906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -4958,7 +4972,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -5005,7 +5019,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
@@ -5052,7 +5066,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -5099,7 +5113,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5160,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +5292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -5322,7 +5336,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -5366,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -5410,7 +5424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -5454,7 +5468,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -5498,7 +5512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -5534,7 +5548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -5622,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -5666,7 +5680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -5710,7 +5724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -5746,7 +5760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
@@ -5790,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
@@ -5834,7 +5848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
@@ -5878,7 +5892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
@@ -5922,7 +5936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -5966,7 +5980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
@@ -6010,7 +6024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
@@ -6054,7 +6068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -6098,7 +6112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -6142,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -6186,7 +6200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -6230,7 +6244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -6274,7 +6288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -6318,7 +6332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -6362,7 +6376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -6406,7 +6420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -6450,7 +6464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -6494,7 +6508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -6538,7 +6552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -6582,7 +6596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -6626,7 +6640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -6670,7 +6684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -6714,7 +6728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -6758,7 +6772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -6802,7 +6816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -6846,7 +6860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -6890,7 +6904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -6932,7 +6946,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>73</v>
       </c>
@@ -6950,7 +6964,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
@@ -6994,7 +7008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
@@ -7041,7 +7055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>104</v>
       </c>
@@ -7085,7 +7099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
@@ -7129,7 +7143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>77</v>
       </c>
@@ -7173,7 +7187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>78</v>
       </c>
@@ -7217,7 +7231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
@@ -7261,7 +7275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -7305,7 +7319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -7349,7 +7363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
@@ -7393,7 +7407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>83</v>
       </c>
@@ -7437,7 +7451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>84</v>
       </c>
@@ -7481,7 +7495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>85</v>
       </c>
@@ -7525,7 +7539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>86</v>
       </c>
@@ -7569,7 +7583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>87</v>
       </c>
@@ -7613,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -7657,7 +7671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
@@ -7701,7 +7715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
@@ -7745,7 +7759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
@@ -7789,7 +7803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>92</v>
       </c>
@@ -7833,7 +7847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
@@ -7877,7 +7891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
@@ -7921,7 +7935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
@@ -7965,7 +7979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
@@ -8009,7 +8023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
@@ -8053,7 +8067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
@@ -8097,7 +8111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -8141,7 +8155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>100</v>
       </c>
@@ -8158,556 +8172,2258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14">
+        <v>48.6</v>
+      </c>
+      <c r="C2" s="14">
+        <v>50.1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45.9</v>
+      </c>
+      <c r="E2" s="14">
+        <v>48.7</v>
+      </c>
+      <c r="F2" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15">
+        <v>50.9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>53.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>46.1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>49.6</v>
+      </c>
+      <c r="F3" s="15">
+        <v>53.6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="C4" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="G4" s="16">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="C5" s="16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D5" s="16">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F5" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="G5" s="16">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="C6" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E6" s="16">
+        <v>35.1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="C7" s="16">
+        <v>52.6</v>
+      </c>
+      <c r="D7" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="E7" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="F7" s="16">
+        <v>52.3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="C8" s="16">
+        <v>51.9</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43.8</v>
+      </c>
+      <c r="E8" s="16">
+        <v>44.1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="G8" s="16">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="C9" s="16">
+        <v>39.6</v>
+      </c>
+      <c r="D9" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F9" s="16">
+        <v>43.1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="16">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="C10" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="D10" s="16">
+        <v>36</v>
+      </c>
+      <c r="E10" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>36.9</v>
+      </c>
+      <c r="G10" s="16">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="C11" s="16">
+        <v>58</v>
+      </c>
+      <c r="D11" s="16">
+        <v>49</v>
+      </c>
+      <c r="E11" s="16">
+        <v>51.3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="G11" s="16">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="16">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="C12" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>41.2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="C13" s="16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D13" s="16">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F13" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="C14" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>44.8</v>
+      </c>
+      <c r="F14" s="16">
+        <v>45.2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="C15" s="16">
+        <v>56.8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>47.9</v>
+      </c>
+      <c r="E15" s="16">
+        <v>52.6</v>
+      </c>
+      <c r="F15" s="16">
+        <v>54</v>
+      </c>
+      <c r="G15" s="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="C16" s="16">
+        <v>59.7</v>
+      </c>
+      <c r="D16" s="16">
+        <v>50.1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>51.6</v>
+      </c>
+      <c r="F16" s="16">
+        <v>51</v>
+      </c>
+      <c r="G16" s="16">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="C17" s="16">
+        <v>34</v>
+      </c>
+      <c r="D17" s="16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E17" s="16">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F17" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="G17" s="16">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="16">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="C18" s="16">
+        <v>53.1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="E18" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="F18" s="16">
+        <v>45.9</v>
+      </c>
+      <c r="G18" s="16">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="16">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="C19" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E19" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="F19" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="G19" s="16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="C20" s="16">
+        <v>62.9</v>
+      </c>
+      <c r="D20" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="E20" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="F20" s="16">
+        <v>55.2</v>
+      </c>
+      <c r="G20" s="16">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="16">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="C21" s="16">
+        <v>77.7</v>
+      </c>
+      <c r="D21" s="16">
+        <v>55.7</v>
+      </c>
+      <c r="E21" s="16">
+        <v>61.2</v>
+      </c>
+      <c r="F21" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G21" s="16">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15">
+        <v>54.3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>57.8</v>
+      </c>
+      <c r="D22" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>59.8</v>
+      </c>
+      <c r="F22" s="15">
+        <v>61.6</v>
+      </c>
+      <c r="G22" s="15">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="16">
+        <v>50.5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>50.4</v>
+      </c>
+      <c r="D23" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="E23" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="F23" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="G23" s="16">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="16">
+        <v>45</v>
+      </c>
+      <c r="C24" s="16">
+        <v>47.5</v>
+      </c>
+      <c r="D24" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="E24" s="16">
+        <v>51.4</v>
+      </c>
+      <c r="F24" s="16">
+        <v>51</v>
+      </c>
+      <c r="G24" s="16">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="C25" s="16">
+        <v>56.6</v>
+      </c>
+      <c r="D25" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="E25" s="16">
+        <v>55.5</v>
+      </c>
+      <c r="F25" s="16">
+        <v>54.9</v>
+      </c>
+      <c r="G25" s="16">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="16">
+        <v>39.1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="D27" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="E27" s="16">
+        <v>51.5</v>
+      </c>
+      <c r="F27" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="59.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="16">
+        <v>53.7</v>
+      </c>
+      <c r="C28" s="16">
+        <v>57</v>
+      </c>
+      <c r="D28" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="E28" s="16">
+        <v>55.6</v>
+      </c>
+      <c r="F28" s="16">
+        <v>55</v>
+      </c>
+      <c r="G28" s="16">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="16">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C29" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="D29" s="16">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E29" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>36.1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="16">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C30" s="16">
+        <v>34.5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="E30" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="F30" s="16">
+        <v>46.6</v>
+      </c>
+      <c r="G30" s="16">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="16">
+        <v>30.6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>34.4</v>
+      </c>
+      <c r="D31" s="16">
+        <v>33.6</v>
+      </c>
+      <c r="E31" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="F31" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="16">
+        <v>50.1</v>
+      </c>
+      <c r="C32" s="16">
+        <v>57.4</v>
+      </c>
+      <c r="D32" s="16">
+        <v>53.3</v>
+      </c>
+      <c r="E32" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="F32" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C33" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="D33" s="16">
+        <v>43</v>
+      </c>
+      <c r="E33" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="F33" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="16">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C34" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="D34" s="16">
+        <v>34.1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>31</v>
+      </c>
+      <c r="F34" s="16">
+        <v>32.4</v>
+      </c>
+      <c r="G34" s="16">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="16">
+        <v>80</v>
+      </c>
+      <c r="C35" s="16">
+        <v>84.8</v>
+      </c>
+      <c r="D35" s="16">
+        <v>73.8</v>
+      </c>
+      <c r="E35" s="16">
+        <v>84.9</v>
+      </c>
+      <c r="F35" s="16">
+        <v>89.3</v>
+      </c>
+      <c r="G35" s="16">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="15">
+        <v>43.6</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44.4</v>
+      </c>
+      <c r="D36" s="15">
+        <v>41.8</v>
+      </c>
+      <c r="E36" s="15">
+        <v>43.3</v>
+      </c>
+      <c r="F36" s="15">
+        <v>44.6</v>
+      </c>
+      <c r="G36" s="15">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="16">
+        <v>37.6</v>
+      </c>
+      <c r="C37" s="16">
+        <v>37.9</v>
+      </c>
+      <c r="D37" s="16">
+        <v>37.9</v>
+      </c>
+      <c r="E37" s="16">
+        <v>39</v>
+      </c>
+      <c r="F37" s="16">
+        <v>39.4</v>
+      </c>
+      <c r="G37" s="16">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="16">
+        <v>48.7</v>
+      </c>
+      <c r="C38" s="16">
+        <v>46.7</v>
+      </c>
+      <c r="D38" s="16">
+        <v>53.3</v>
+      </c>
+      <c r="E38" s="16">
+        <v>50.2</v>
+      </c>
+      <c r="F38" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="G38" s="16">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16">
+        <v>42.8</v>
+      </c>
+      <c r="E39" s="16">
+        <v>44.3</v>
+      </c>
+      <c r="F39" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="G39" s="16">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="C40" s="16">
+        <v>41.9</v>
+      </c>
+      <c r="D40" s="16">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16">
+        <v>43.3</v>
+      </c>
+      <c r="F40" s="16">
+        <v>45.2</v>
+      </c>
+      <c r="G40" s="16">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="16">
+        <v>65.7</v>
+      </c>
+      <c r="C41" s="16">
+        <v>68.2</v>
+      </c>
+      <c r="D41" s="16">
+        <v>60.8</v>
+      </c>
+      <c r="E41" s="16">
+        <v>61.2</v>
+      </c>
+      <c r="F41" s="16">
+        <v>62.1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="16">
+        <v>48.1</v>
+      </c>
+      <c r="C42" s="16">
+        <v>50.5</v>
+      </c>
+      <c r="D42" s="16">
+        <v>43.9</v>
+      </c>
+      <c r="E42" s="16">
+        <v>45.3</v>
+      </c>
+      <c r="F42" s="16">
+        <v>45.7</v>
+      </c>
+      <c r="G42" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="C43" s="16">
+        <v>38.6</v>
+      </c>
+      <c r="D43" s="16">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E43" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="F43" s="16">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G43" s="16">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16">
+        <v>41.6</v>
+      </c>
+      <c r="E44" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="F44" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="G44" s="16">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="15">
+        <v>42.5</v>
+      </c>
+      <c r="C45" s="15">
+        <v>40.1</v>
+      </c>
+      <c r="D45" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="E45" s="15">
+        <v>42.9</v>
+      </c>
+      <c r="F45" s="15">
+        <v>44.1</v>
+      </c>
+      <c r="G45" s="15">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="16">
+        <v>37.4</v>
+      </c>
+      <c r="C46" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D46" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E46" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="F46" s="16">
+        <v>41.4</v>
+      </c>
+      <c r="G46" s="16">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="16">
+        <v>27</v>
+      </c>
+      <c r="C47" s="16">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D47" s="16">
+        <v>39.4</v>
+      </c>
+      <c r="E47" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="F47" s="16">
+        <v>44.7</v>
+      </c>
+      <c r="G47" s="16">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="16">
+        <v>44.1</v>
+      </c>
+      <c r="C48" s="16">
+        <v>44</v>
+      </c>
+      <c r="D48" s="16">
+        <v>43.7</v>
+      </c>
+      <c r="E48" s="16">
+        <v>46.9</v>
+      </c>
+      <c r="F48" s="16">
+        <v>48.1</v>
+      </c>
+      <c r="G48" s="16">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="C49" s="16">
+        <v>33</v>
+      </c>
+      <c r="D49" s="16">
+        <v>38.9</v>
+      </c>
+      <c r="E49" s="16">
+        <v>41.7</v>
+      </c>
+      <c r="F49" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="G49" s="16">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="16">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C50" s="16">
+        <v>70.8</v>
+      </c>
+      <c r="D50" s="16">
+        <v>64.5</v>
+      </c>
+      <c r="E50" s="16">
+        <v>68.2</v>
+      </c>
+      <c r="F50" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G50" s="16">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="16">
+        <v>28.3</v>
+      </c>
+      <c r="D51" s="16">
+        <v>27</v>
+      </c>
+      <c r="E51" s="16">
+        <v>29.4</v>
+      </c>
+      <c r="F51" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G51" s="16">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="16">
+        <v>44.9</v>
+      </c>
+      <c r="C52" s="16">
+        <v>39.5</v>
+      </c>
+      <c r="D52" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="E52" s="16">
+        <v>44.2</v>
+      </c>
+      <c r="F52" s="16">
+        <v>46.1</v>
+      </c>
+      <c r="G52" s="16">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="15">
+        <v>46.7</v>
+      </c>
+      <c r="C53" s="15">
+        <v>47.2</v>
+      </c>
+      <c r="D53" s="15">
+        <v>45</v>
+      </c>
+      <c r="E53" s="15">
+        <v>46.7</v>
+      </c>
+      <c r="F53" s="15">
+        <v>47.6</v>
+      </c>
+      <c r="G53" s="15">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="16">
+        <v>41.7</v>
+      </c>
+      <c r="C54" s="16">
+        <v>42.2</v>
+      </c>
+      <c r="D54" s="16">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E54" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="F54" s="16">
+        <v>44.8</v>
+      </c>
+      <c r="G54" s="16">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="16">
+        <v>34.1</v>
+      </c>
+      <c r="C55" s="16">
+        <v>33.5</v>
+      </c>
+      <c r="D55" s="16">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E55" s="16">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>51.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="F55" s="16">
+        <v>36.4</v>
+      </c>
+      <c r="G55" s="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="16">
+        <v>51.4</v>
+      </c>
+      <c r="C56" s="16">
+        <v>51.8</v>
+      </c>
+      <c r="D56" s="16">
+        <v>53.7</v>
+      </c>
+      <c r="E56" s="16">
+        <v>53.4</v>
+      </c>
+      <c r="F56" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="G56" s="16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="B57" s="16">
+        <v>44.9</v>
+      </c>
+      <c r="C57" s="16">
+        <v>44.2</v>
+      </c>
+      <c r="D57" s="16">
+        <v>40.6</v>
+      </c>
+      <c r="E57" s="16">
+        <v>42.8</v>
+      </c>
+      <c r="F57" s="16">
+        <v>44.3</v>
+      </c>
+      <c r="G57" s="16">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="16">
+        <v>56.9</v>
+      </c>
+      <c r="C58" s="16">
+        <v>58.5</v>
+      </c>
+      <c r="D58" s="16">
+        <v>55.3</v>
+      </c>
+      <c r="E58" s="16">
+        <v>49.6</v>
+      </c>
+      <c r="F58" s="16">
+        <v>51.2</v>
+      </c>
+      <c r="G58" s="16">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="16">
+        <v>47.6</v>
+      </c>
+      <c r="C59" s="16">
+        <v>47.6</v>
+      </c>
+      <c r="D59" s="16">
+        <v>49.3</v>
+      </c>
+      <c r="E59" s="16">
+        <v>49.5</v>
+      </c>
+      <c r="F59" s="16">
+        <v>50.6</v>
+      </c>
+      <c r="G59" s="16">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="16">
+        <v>55.1</v>
+      </c>
+      <c r="C60" s="16">
+        <v>54.2</v>
+      </c>
+      <c r="D60" s="16">
+        <v>49.2</v>
+      </c>
+      <c r="E60" s="16">
+        <v>50.6</v>
+      </c>
+      <c r="F60" s="16">
+        <v>50.4</v>
+      </c>
+      <c r="G60" s="16">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="16">
+        <v>46.3</v>
+      </c>
+      <c r="C61" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="D61" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="E61" s="16">
+        <v>48.5</v>
+      </c>
+      <c r="F61" s="16">
+        <v>49.7</v>
+      </c>
+      <c r="G61" s="16">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="C62" s="16">
+        <v>47.6</v>
+      </c>
+      <c r="D62" s="16">
+        <v>47.4</v>
+      </c>
+      <c r="E62" s="16">
+        <v>48.3</v>
+      </c>
+      <c r="F62" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="G62" s="16">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="16">
+        <v>50.2</v>
+      </c>
+      <c r="C63" s="16">
+        <v>52.2</v>
+      </c>
+      <c r="D63" s="16">
+        <v>46.9</v>
+      </c>
+      <c r="E63" s="16">
+        <v>46.4</v>
+      </c>
+      <c r="F63" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="G63" s="16">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="16">
+        <v>37</v>
+      </c>
+      <c r="C64" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D64" s="16">
+        <v>38.9</v>
+      </c>
+      <c r="E64" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F64" s="16">
+        <v>45</v>
+      </c>
+      <c r="G64" s="16">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="16">
+        <v>48.2</v>
+      </c>
+      <c r="C65" s="16">
+        <v>47.7</v>
+      </c>
+      <c r="D65" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="E65" s="16">
+        <v>48.8</v>
+      </c>
+      <c r="F65" s="16">
+        <v>49.4</v>
+      </c>
+      <c r="G65" s="16">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="C66" s="16">
+        <v>52</v>
+      </c>
+      <c r="D66" s="16">
+        <v>48.6</v>
+      </c>
+      <c r="E66" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="F66" s="16">
+        <v>51.4</v>
+      </c>
+      <c r="G66" s="16">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="C67" s="16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D67" s="16">
+        <v>39</v>
+      </c>
+      <c r="E67" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="F67" s="16">
+        <v>43</v>
+      </c>
+      <c r="G67" s="16">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="15">
+        <v>42.5</v>
+      </c>
+      <c r="C68" s="15">
+        <v>46</v>
+      </c>
+      <c r="D68" s="15">
+        <v>43.1</v>
+      </c>
+      <c r="E68" s="15">
+        <v>46</v>
+      </c>
+      <c r="F68" s="15">
+        <v>47.1</v>
+      </c>
+      <c r="G68" s="15">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="16">
+        <v>27.7</v>
+      </c>
+      <c r="C69" s="16">
+        <v>29.7</v>
+      </c>
+      <c r="D69" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="E69" s="16">
+        <v>29.3</v>
+      </c>
+      <c r="F69" s="16">
+        <v>28.9</v>
+      </c>
+      <c r="G69" s="16">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="C70" s="16">
+        <v>45.7</v>
+      </c>
+      <c r="D70" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="E70" s="16">
+        <v>43.7</v>
+      </c>
+      <c r="F70" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="G70" s="16">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="16">
+        <v>49</v>
+      </c>
+      <c r="C71" s="16">
+        <v>53.9</v>
+      </c>
+      <c r="D71" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="E71" s="16">
+        <v>55.9</v>
+      </c>
+      <c r="F71" s="16">
+        <v>57.1</v>
+      </c>
+      <c r="G71" s="16">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" ht="59.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="16">
+        <v>49.2</v>
+      </c>
+      <c r="C73" s="16">
+        <v>55.2</v>
+      </c>
+      <c r="D73" s="16">
+        <v>53.4</v>
+      </c>
+      <c r="E73" s="16">
+        <v>57.3</v>
+      </c>
+      <c r="F73" s="16">
+        <v>57.5</v>
+      </c>
+      <c r="G73" s="16">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="16">
+        <v>53</v>
+      </c>
+      <c r="C74" s="16">
+        <v>51.2</v>
+      </c>
+      <c r="D74" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="E74" s="16">
+        <v>56.7</v>
+      </c>
+      <c r="F74" s="16">
+        <v>61</v>
+      </c>
+      <c r="G74" s="16">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="16">
+        <v>47.1</v>
+      </c>
+      <c r="C75" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="D75" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="E75" s="16">
+        <v>54.2</v>
+      </c>
+      <c r="F75" s="16">
+        <v>55.4</v>
+      </c>
+      <c r="G75" s="16">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="C76" s="16">
+        <v>43</v>
+      </c>
+      <c r="D76" s="16">
+        <v>39.4</v>
+      </c>
+      <c r="E76" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="F76" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="G76" s="16">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="15">
+        <v>51.6</v>
+      </c>
+      <c r="C77" s="15">
+        <v>52.4</v>
+      </c>
+      <c r="D77" s="15">
+        <v>47</v>
+      </c>
+      <c r="E77" s="15">
+        <v>48.8</v>
+      </c>
+      <c r="F77" s="15">
+        <v>49.2</v>
+      </c>
+      <c r="G77" s="15">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="16">
+        <v>38.9</v>
+      </c>
+      <c r="C78" s="16">
+        <v>43.5</v>
+      </c>
+      <c r="D78" s="16">
+        <v>44.7</v>
+      </c>
+      <c r="E78" s="16">
+        <v>44.8</v>
+      </c>
+      <c r="F78" s="16">
+        <v>45.6</v>
+      </c>
+      <c r="G78" s="16">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="16">
+        <v>42.8</v>
+      </c>
+      <c r="C79" s="16">
+        <v>45.6</v>
+      </c>
+      <c r="D79" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="E79" s="16">
+        <v>49.7</v>
+      </c>
+      <c r="F79" s="16">
+        <v>50.6</v>
+      </c>
+      <c r="G79" s="16">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="16">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C80" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="D80" s="16">
+        <v>39</v>
+      </c>
+      <c r="E80" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="F80" s="16">
+        <v>40.1</v>
+      </c>
+      <c r="G80" s="16">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="16">
+        <v>46.7</v>
+      </c>
+      <c r="C81" s="16">
+        <v>48.7</v>
+      </c>
+      <c r="D81" s="16">
+        <v>42.9</v>
+      </c>
+      <c r="E81" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F81" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="G81" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="C82" s="16">
+        <v>53.7</v>
+      </c>
+      <c r="D82" s="16">
+        <v>47.6</v>
+      </c>
+      <c r="E82" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="F82" s="16">
+        <v>50.6</v>
+      </c>
+      <c r="G82" s="16">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="16">
+        <v>47.5</v>
+      </c>
+      <c r="C83" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="D83" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="E83" s="16">
+        <v>49</v>
+      </c>
+      <c r="F83" s="16">
+        <v>49.2</v>
+      </c>
+      <c r="G83" s="16">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="16">
+        <v>47</v>
+      </c>
+      <c r="C84" s="16">
+        <v>47.7</v>
+      </c>
+      <c r="D84" s="16">
+        <v>42.9</v>
+      </c>
+      <c r="E84" s="16">
+        <v>43.8</v>
+      </c>
+      <c r="F84" s="16">
+        <v>44.2</v>
+      </c>
+      <c r="G84" s="16">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="C85" s="16">
+        <v>58.3</v>
+      </c>
+      <c r="D85" s="16">
+        <v>51.6</v>
+      </c>
+      <c r="E85" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="F85" s="16">
+        <v>56</v>
+      </c>
+      <c r="G85" s="16">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="16">
+        <v>55.8</v>
+      </c>
+      <c r="C86" s="16">
+        <v>53.9</v>
+      </c>
+      <c r="D86" s="16">
+        <v>50.6</v>
+      </c>
+      <c r="E86" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="F86" s="16">
+        <v>51.2</v>
+      </c>
+      <c r="G86" s="16">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="16">
+        <v>67.3</v>
+      </c>
+      <c r="C87" s="16">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D87" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="E87" s="16">
+        <v>56.4</v>
+      </c>
+      <c r="F87" s="16">
+        <v>53.1</v>
+      </c>
+      <c r="G87" s="16">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="15">
+        <v>52.3</v>
+      </c>
+      <c r="C88" s="15">
+        <v>54.2</v>
+      </c>
+      <c r="D88" s="15">
+        <v>51.4</v>
+      </c>
+      <c r="E88" s="15">
+        <v>53.9</v>
+      </c>
+      <c r="F88" s="15">
+        <v>54</v>
+      </c>
+      <c r="G88" s="15">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="16">
+        <v>38.6</v>
+      </c>
+      <c r="C89" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="D89" s="16">
+        <v>45.6</v>
+      </c>
+      <c r="E89" s="16">
+        <v>45.1</v>
+      </c>
+      <c r="F89" s="16">
+        <v>44.7</v>
+      </c>
+      <c r="G89" s="16">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="16">
+        <v>49.3</v>
+      </c>
+      <c r="C90" s="16">
+        <v>57.1</v>
+      </c>
+      <c r="D90" s="16">
+        <v>55.2</v>
+      </c>
+      <c r="E90" s="16">
+        <v>61.6</v>
+      </c>
+      <c r="F90" s="16">
+        <v>60.3</v>
+      </c>
+      <c r="G90" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="C91" s="16">
+        <v>56.1</v>
+      </c>
+      <c r="D91" s="16">
+        <v>48.8</v>
+      </c>
+      <c r="E91" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="F91" s="16">
+        <v>52.3</v>
+      </c>
+      <c r="G91" s="16">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="C92" s="16">
+        <v>49.3</v>
+      </c>
+      <c r="D92" s="16">
+        <v>53.6</v>
+      </c>
+      <c r="E92" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="F92" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="G92" s="16">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="C93" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="D93" s="16">
+        <v>50</v>
+      </c>
+      <c r="E93" s="16">
+        <v>51.8</v>
+      </c>
+      <c r="F93" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="G93" s="16">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="16">
+        <v>60.5</v>
+      </c>
+      <c r="C94" s="16">
+        <v>61.1</v>
+      </c>
+      <c r="D94" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="E94" s="16">
+        <v>56.4</v>
+      </c>
+      <c r="F94" s="16">
+        <v>57.5</v>
+      </c>
+      <c r="G94" s="16">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="16">
+        <v>60.7</v>
+      </c>
+      <c r="C95" s="16">
+        <v>62.8</v>
+      </c>
+      <c r="D95" s="16">
+        <v>55.4</v>
+      </c>
+      <c r="E95" s="16">
+        <v>54.9</v>
+      </c>
+      <c r="F95" s="16">
+        <v>55.4</v>
+      </c>
+      <c r="G95" s="16">
         <v>56.8</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>62.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+    <row r="96" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="16">
+        <v>55.2</v>
+      </c>
+      <c r="C96" s="16">
+        <v>55.6</v>
+      </c>
+      <c r="D96" s="16">
+        <v>61</v>
+      </c>
+      <c r="E96" s="16">
+        <v>62.2</v>
+      </c>
+      <c r="F96" s="16">
+        <v>62.4</v>
+      </c>
+      <c r="G96" s="16">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="16">
+        <v>44</v>
+      </c>
+      <c r="C97" s="16">
+        <v>49.1</v>
+      </c>
+      <c r="D97" s="16">
+        <v>54.1</v>
+      </c>
+      <c r="E97" s="16">
+        <v>63.6</v>
+      </c>
+      <c r="F97" s="16">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G97" s="16">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="16">
+        <v>37</v>
+      </c>
+      <c r="C98" s="16">
+        <v>35.4</v>
+      </c>
+      <c r="D98" s="16">
+        <v>37.9</v>
+      </c>
+      <c r="E98" s="16">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>33.799999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>51.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="F98" s="16">
+        <v>37.6</v>
+      </c>
+      <c r="G98" s="16">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <v>50.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
-        <v>72.900000000000006</v>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="17">
+        <v>78.8</v>
+      </c>
+      <c r="C99" s="17">
+        <v>76.7</v>
+      </c>
+      <c r="D99" s="17">
+        <v>65</v>
+      </c>
+      <c r="E99" s="17">
+        <v>71</v>
+      </c>
+      <c r="F99" s="17">
+        <v>73.7</v>
+      </c>
+      <c r="G99" s="17">
+        <v>74.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -8716,2258 +10432,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C1" s="11">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="11">
-        <v>2015</v>
-      </c>
-      <c r="E1" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="11">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14">
-        <v>48.6</v>
-      </c>
-      <c r="C2" s="14">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="15">
+        <v>54.3</v>
+      </c>
+      <c r="C1" s="15">
+        <v>57.8</v>
+      </c>
+      <c r="D1" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="E1" s="15">
+        <v>59.8</v>
+      </c>
+      <c r="F1" s="15">
+        <v>61.6</v>
+      </c>
+      <c r="G1" s="15">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16">
+        <v>50.5</v>
+      </c>
+      <c r="C2" s="16">
+        <v>50.4</v>
+      </c>
+      <c r="D2" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="E2" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="F2" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="G2" s="16">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16">
+        <v>47.5</v>
+      </c>
+      <c r="D3" s="16">
+        <v>48.4</v>
+      </c>
+      <c r="E3" s="16">
+        <v>51.4</v>
+      </c>
+      <c r="F3" s="16">
+        <v>51</v>
+      </c>
+      <c r="G3" s="16">
         <v>50.1</v>
       </c>
-      <c r="D2" s="14">
-        <v>45.9</v>
-      </c>
-      <c r="E2" s="14">
-        <v>48.7</v>
-      </c>
-      <c r="F2" s="14">
-        <v>50.4</v>
-      </c>
-      <c r="G2" s="14">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>56.6</v>
+      </c>
+      <c r="D4" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>55.5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>54.9</v>
+      </c>
+      <c r="G4" s="16">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="16">
+        <v>39.1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>51.5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16">
+        <v>53.7</v>
+      </c>
+      <c r="C7" s="16">
+        <v>57</v>
+      </c>
+      <c r="D7" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>55.6</v>
+      </c>
+      <c r="F7" s="16">
+        <v>55</v>
+      </c>
+      <c r="G7" s="16">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="16">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C8" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="D8" s="16">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E8" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>36.1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="16">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C9" s="16">
+        <v>34.5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>46.6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="16">
+        <v>30.6</v>
+      </c>
+      <c r="C10" s="16">
+        <v>34.4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>33.6</v>
+      </c>
+      <c r="E10" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="16">
+        <v>50.1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>57.4</v>
+      </c>
+      <c r="D11" s="16">
+        <v>53.3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="F11" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="G11" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15">
-        <v>50.9</v>
-      </c>
-      <c r="C3" s="15">
-        <v>53.5</v>
-      </c>
-      <c r="D3" s="15">
-        <v>46.1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>49.6</v>
-      </c>
-      <c r="F3" s="15">
-        <v>53.6</v>
-      </c>
-      <c r="G3" s="15">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16">
-        <v>39.6</v>
-      </c>
-      <c r="C4" s="16">
-        <v>40.4</v>
-      </c>
-      <c r="D4" s="16">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C12" s="16">
         <v>41.3</v>
       </c>
-      <c r="E4" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="F4" s="16">
-        <v>40.4</v>
-      </c>
-      <c r="G4" s="16">
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="16">
-        <v>36.4</v>
-      </c>
-      <c r="C5" s="16">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D5" s="16">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="F5" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="G5" s="16">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="C6" s="16">
-        <v>33.1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E6" s="16">
-        <v>35.1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>36.5</v>
-      </c>
-      <c r="G6" s="16">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16">
-        <v>53.1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>52.6</v>
-      </c>
-      <c r="D7" s="16">
-        <v>51.7</v>
-      </c>
-      <c r="E7" s="16">
-        <v>52.9</v>
-      </c>
-      <c r="F7" s="16">
-        <v>52.3</v>
-      </c>
-      <c r="G7" s="16">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16">
-        <v>51</v>
-      </c>
-      <c r="C8" s="16">
-        <v>51.9</v>
-      </c>
-      <c r="D8" s="16">
-        <v>43.8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>44.1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>45.4</v>
-      </c>
-      <c r="G8" s="16">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="16">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="C9" s="16">
-        <v>39.6</v>
-      </c>
-      <c r="D9" s="16">
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>42.6</v>
-      </c>
-      <c r="F9" s="16">
-        <v>43.1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="C10" s="16">
-        <v>34.6</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D12" s="16">
+        <v>43</v>
+      </c>
+      <c r="E12" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="F12" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="16">
-        <v>38.1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>36.9</v>
-      </c>
-      <c r="G10" s="16">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="16">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16">
-        <v>58</v>
-      </c>
-      <c r="D11" s="16">
-        <v>49</v>
-      </c>
-      <c r="E11" s="16">
-        <v>51.3</v>
-      </c>
-      <c r="F11" s="16">
-        <v>52.7</v>
-      </c>
-      <c r="G11" s="16">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="16">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C12" s="16">
-        <v>40.4</v>
-      </c>
-      <c r="D12" s="16">
-        <v>42.5</v>
-      </c>
-      <c r="E12" s="16">
-        <v>42.3</v>
-      </c>
-      <c r="F12" s="16">
-        <v>41.2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="16">
         <v>34.700000000000003</v>
       </c>
       <c r="C13" s="16">
-        <v>35.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="D13" s="16">
-        <v>38</v>
+        <v>34.1</v>
       </c>
       <c r="E13" s="16">
-        <v>42.6</v>
+        <v>31</v>
       </c>
       <c r="F13" s="16">
-        <v>46.5</v>
+        <v>32.4</v>
       </c>
       <c r="G13" s="16">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14" s="16">
-        <v>37.6</v>
+        <v>80</v>
       </c>
       <c r="C14" s="16">
-        <v>39.9</v>
+        <v>84.8</v>
       </c>
       <c r="D14" s="16">
-        <v>44.5</v>
+        <v>73.8</v>
       </c>
       <c r="E14" s="16">
-        <v>44.8</v>
+        <v>84.9</v>
       </c>
       <c r="F14" s="16">
-        <v>45.2</v>
+        <v>89.3</v>
       </c>
       <c r="G14" s="16">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16">
-        <v>53.3</v>
-      </c>
-      <c r="C15" s="16">
-        <v>56.8</v>
-      </c>
-      <c r="D15" s="16">
-        <v>47.9</v>
-      </c>
-      <c r="E15" s="16">
-        <v>52.6</v>
-      </c>
-      <c r="F15" s="16">
-        <v>54</v>
-      </c>
-      <c r="G15" s="16">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="16">
-        <v>59.7</v>
-      </c>
-      <c r="C16" s="16">
-        <v>59.7</v>
-      </c>
-      <c r="D16" s="16">
-        <v>50.1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>51.6</v>
-      </c>
-      <c r="F16" s="16">
-        <v>51</v>
-      </c>
-      <c r="G16" s="16">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="16">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="C17" s="16">
-        <v>34</v>
-      </c>
-      <c r="D17" s="16">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E17" s="16">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="F17" s="16">
-        <v>42.4</v>
-      </c>
-      <c r="G17" s="16">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="16">
-        <v>51.6</v>
-      </c>
-      <c r="C18" s="16">
-        <v>53.1</v>
-      </c>
-      <c r="D18" s="16">
-        <v>43.4</v>
-      </c>
-      <c r="E18" s="16">
-        <v>45.4</v>
-      </c>
-      <c r="F18" s="16">
-        <v>45.9</v>
-      </c>
-      <c r="G18" s="16">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="16">
-        <v>33.9</v>
-      </c>
-      <c r="C19" s="16">
-        <v>33.1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E19" s="16">
-        <v>38.5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>39.9</v>
-      </c>
-      <c r="G19" s="16">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="16">
-        <v>58.1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>62.9</v>
-      </c>
-      <c r="D20" s="16">
-        <v>52.7</v>
-      </c>
-      <c r="E20" s="16">
-        <v>50.3</v>
-      </c>
-      <c r="F20" s="16">
-        <v>55.2</v>
-      </c>
-      <c r="G20" s="16">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="16">
-        <v>72.7</v>
-      </c>
-      <c r="C21" s="16">
-        <v>77.7</v>
-      </c>
-      <c r="D21" s="16">
-        <v>55.7</v>
-      </c>
-      <c r="E21" s="16">
-        <v>61.2</v>
-      </c>
-      <c r="F21" s="16">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="G21" s="16">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="15">
-        <v>54.3</v>
-      </c>
-      <c r="C22" s="15">
-        <v>57.8</v>
-      </c>
-      <c r="D22" s="15">
-        <v>54.5</v>
-      </c>
-      <c r="E22" s="15">
-        <v>59.8</v>
-      </c>
-      <c r="F22" s="15">
-        <v>61.6</v>
-      </c>
-      <c r="G22" s="15">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16">
-        <v>50.5</v>
-      </c>
-      <c r="C23" s="16">
-        <v>50.4</v>
-      </c>
-      <c r="D23" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="E23" s="16">
-        <v>51.7</v>
-      </c>
-      <c r="F23" s="16">
-        <v>52.9</v>
-      </c>
-      <c r="G23" s="16">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="16">
-        <v>45</v>
-      </c>
-      <c r="C24" s="16">
-        <v>47.5</v>
-      </c>
-      <c r="D24" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="E24" s="16">
-        <v>51.4</v>
-      </c>
-      <c r="F24" s="16">
-        <v>51</v>
-      </c>
-      <c r="G24" s="16">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="16">
-        <v>53.2</v>
-      </c>
-      <c r="C25" s="16">
-        <v>56.6</v>
-      </c>
-      <c r="D25" s="16">
-        <v>53.2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>55.5</v>
-      </c>
-      <c r="F25" s="16">
-        <v>54.9</v>
-      </c>
-      <c r="G25" s="16">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="16">
-        <v>39.1</v>
-      </c>
-      <c r="C27" s="16">
-        <v>44.4</v>
-      </c>
-      <c r="D27" s="16">
-        <v>46.5</v>
-      </c>
-      <c r="E27" s="16">
-        <v>51.5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>51.1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="16">
-        <v>53.7</v>
-      </c>
-      <c r="C28" s="16">
-        <v>57</v>
-      </c>
-      <c r="D28" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="E28" s="16">
-        <v>55.6</v>
-      </c>
-      <c r="F28" s="16">
-        <v>55</v>
-      </c>
-      <c r="G28" s="16">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="16">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="C29" s="16">
-        <v>34.6</v>
-      </c>
-      <c r="D29" s="16">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E29" s="16">
-        <v>35.5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>36.1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="16">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C30" s="16">
-        <v>34.5</v>
-      </c>
-      <c r="D30" s="16">
-        <v>44.6</v>
-      </c>
-      <c r="E30" s="16">
-        <v>46.5</v>
-      </c>
-      <c r="F30" s="16">
-        <v>46.6</v>
-      </c>
-      <c r="G30" s="16">
-        <v>48.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="16">
-        <v>30.6</v>
-      </c>
-      <c r="C31" s="16">
-        <v>34.4</v>
-      </c>
-      <c r="D31" s="16">
-        <v>33.6</v>
-      </c>
-      <c r="E31" s="16">
-        <v>37.1</v>
-      </c>
-      <c r="F31" s="16">
-        <v>37.1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="16">
-        <v>50.1</v>
-      </c>
-      <c r="C32" s="16">
-        <v>57.4</v>
-      </c>
-      <c r="D32" s="16">
-        <v>53.3</v>
-      </c>
-      <c r="E32" s="16">
-        <v>51.7</v>
-      </c>
-      <c r="F32" s="16">
-        <v>51.1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="16">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C33" s="16">
-        <v>41.3</v>
-      </c>
-      <c r="D33" s="16">
-        <v>43</v>
-      </c>
-      <c r="E33" s="16">
-        <v>43.4</v>
-      </c>
-      <c r="F33" s="16">
-        <v>42.5</v>
-      </c>
-      <c r="G33" s="16">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="16">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C34" s="16">
-        <v>34.6</v>
-      </c>
-      <c r="D34" s="16">
-        <v>34.1</v>
-      </c>
-      <c r="E34" s="16">
-        <v>31</v>
-      </c>
-      <c r="F34" s="16">
-        <v>32.4</v>
-      </c>
-      <c r="G34" s="16">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="16">
-        <v>80</v>
-      </c>
-      <c r="C35" s="16">
-        <v>84.8</v>
-      </c>
-      <c r="D35" s="16">
-        <v>73.8</v>
-      </c>
-      <c r="E35" s="16">
-        <v>84.9</v>
-      </c>
-      <c r="F35" s="16">
-        <v>89.3</v>
-      </c>
-      <c r="G35" s="16">
         <v>91.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="15">
-        <v>43.6</v>
-      </c>
-      <c r="C36" s="15">
-        <v>44.4</v>
-      </c>
-      <c r="D36" s="15">
-        <v>41.8</v>
-      </c>
-      <c r="E36" s="15">
-        <v>43.3</v>
-      </c>
-      <c r="F36" s="15">
-        <v>44.6</v>
-      </c>
-      <c r="G36" s="15">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="16">
-        <v>37.6</v>
-      </c>
-      <c r="C37" s="16">
-        <v>37.9</v>
-      </c>
-      <c r="D37" s="16">
-        <v>37.9</v>
-      </c>
-      <c r="E37" s="16">
-        <v>39</v>
-      </c>
-      <c r="F37" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="G37" s="16">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="16">
-        <v>48.7</v>
-      </c>
-      <c r="C38" s="16">
-        <v>46.7</v>
-      </c>
-      <c r="D38" s="16">
-        <v>53.3</v>
-      </c>
-      <c r="E38" s="16">
-        <v>50.2</v>
-      </c>
-      <c r="F38" s="16">
-        <v>49.9</v>
-      </c>
-      <c r="G38" s="16">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16">
-        <v>42.8</v>
-      </c>
-      <c r="E39" s="16">
-        <v>44.3</v>
-      </c>
-      <c r="F39" s="16">
-        <v>45.5</v>
-      </c>
-      <c r="G39" s="16">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="16">
-        <v>42.3</v>
-      </c>
-      <c r="C40" s="16">
-        <v>41.9</v>
-      </c>
-      <c r="D40" s="16">
-        <v>40</v>
-      </c>
-      <c r="E40" s="16">
-        <v>43.3</v>
-      </c>
-      <c r="F40" s="16">
-        <v>45.2</v>
-      </c>
-      <c r="G40" s="16">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="16">
-        <v>65.7</v>
-      </c>
-      <c r="C41" s="16">
-        <v>68.2</v>
-      </c>
-      <c r="D41" s="16">
-        <v>60.8</v>
-      </c>
-      <c r="E41" s="16">
-        <v>61.2</v>
-      </c>
-      <c r="F41" s="16">
-        <v>62.1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="16">
-        <v>48.1</v>
-      </c>
-      <c r="C42" s="16">
-        <v>50.5</v>
-      </c>
-      <c r="D42" s="16">
-        <v>43.9</v>
-      </c>
-      <c r="E42" s="16">
-        <v>45.3</v>
-      </c>
-      <c r="F42" s="16">
-        <v>45.7</v>
-      </c>
-      <c r="G42" s="16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="16">
-        <v>37.5</v>
-      </c>
-      <c r="C43" s="16">
-        <v>38.6</v>
-      </c>
-      <c r="D43" s="16">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E43" s="16">
-        <v>37.1</v>
-      </c>
-      <c r="F43" s="16">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="G43" s="16">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16">
-        <v>41.6</v>
-      </c>
-      <c r="E44" s="16">
-        <v>45.4</v>
-      </c>
-      <c r="F44" s="16">
-        <v>44.6</v>
-      </c>
-      <c r="G44" s="16">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="15">
-        <v>42.5</v>
-      </c>
-      <c r="C45" s="15">
-        <v>40.1</v>
-      </c>
-      <c r="D45" s="15">
-        <v>39.5</v>
-      </c>
-      <c r="E45" s="15">
-        <v>42.9</v>
-      </c>
-      <c r="F45" s="15">
-        <v>44.1</v>
-      </c>
-      <c r="G45" s="15">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="16">
-        <v>37.4</v>
-      </c>
-      <c r="C46" s="16">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D46" s="16">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E46" s="16">
-        <v>41.3</v>
-      </c>
-      <c r="F46" s="16">
-        <v>41.4</v>
-      </c>
-      <c r="G46" s="16">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="16">
-        <v>27</v>
-      </c>
-      <c r="C47" s="16">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D47" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="E47" s="16">
-        <v>44.4</v>
-      </c>
-      <c r="F47" s="16">
-        <v>44.7</v>
-      </c>
-      <c r="G47" s="16">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="16">
-        <v>44.1</v>
-      </c>
-      <c r="C48" s="16">
-        <v>44</v>
-      </c>
-      <c r="D48" s="16">
-        <v>43.7</v>
-      </c>
-      <c r="E48" s="16">
-        <v>46.9</v>
-      </c>
-      <c r="F48" s="16">
-        <v>48.1</v>
-      </c>
-      <c r="G48" s="16">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="16">
-        <v>33.1</v>
-      </c>
-      <c r="C49" s="16">
-        <v>33</v>
-      </c>
-      <c r="D49" s="16">
-        <v>38.9</v>
-      </c>
-      <c r="E49" s="16">
-        <v>41.7</v>
-      </c>
-      <c r="F49" s="16">
-        <v>42.3</v>
-      </c>
-      <c r="G49" s="16">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="16">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="C50" s="16">
-        <v>70.8</v>
-      </c>
-      <c r="D50" s="16">
-        <v>64.5</v>
-      </c>
-      <c r="E50" s="16">
-        <v>68.2</v>
-      </c>
-      <c r="F50" s="16">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="G50" s="16">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="16">
-        <v>28.3</v>
-      </c>
-      <c r="D51" s="16">
-        <v>27</v>
-      </c>
-      <c r="E51" s="16">
-        <v>29.4</v>
-      </c>
-      <c r="F51" s="16">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G51" s="16">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="16">
-        <v>44.9</v>
-      </c>
-      <c r="C52" s="16">
-        <v>39.5</v>
-      </c>
-      <c r="D52" s="16">
-        <v>41.3</v>
-      </c>
-      <c r="E52" s="16">
-        <v>44.2</v>
-      </c>
-      <c r="F52" s="16">
-        <v>46.1</v>
-      </c>
-      <c r="G52" s="16">
-        <v>46.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="15">
-        <v>46.7</v>
-      </c>
-      <c r="C53" s="15">
-        <v>47.2</v>
-      </c>
-      <c r="D53" s="15">
-        <v>45</v>
-      </c>
-      <c r="E53" s="15">
-        <v>46.7</v>
-      </c>
-      <c r="F53" s="15">
-        <v>47.6</v>
-      </c>
-      <c r="G53" s="15">
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="16">
-        <v>41.7</v>
-      </c>
-      <c r="C54" s="16">
-        <v>42.2</v>
-      </c>
-      <c r="D54" s="16">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="E54" s="16">
-        <v>43.4</v>
-      </c>
-      <c r="F54" s="16">
-        <v>44.8</v>
-      </c>
-      <c r="G54" s="16">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="16">
-        <v>34.1</v>
-      </c>
-      <c r="C55" s="16">
-        <v>33.5</v>
-      </c>
-      <c r="D55" s="16">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E55" s="16">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="F55" s="16">
-        <v>36.4</v>
-      </c>
-      <c r="G55" s="16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="16">
-        <v>51.4</v>
-      </c>
-      <c r="C56" s="16">
-        <v>51.8</v>
-      </c>
-      <c r="D56" s="16">
-        <v>53.7</v>
-      </c>
-      <c r="E56" s="16">
-        <v>53.4</v>
-      </c>
-      <c r="F56" s="16">
-        <v>54.6</v>
-      </c>
-      <c r="G56" s="16">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="16">
-        <v>44.9</v>
-      </c>
-      <c r="C57" s="16">
-        <v>44.2</v>
-      </c>
-      <c r="D57" s="16">
-        <v>40.6</v>
-      </c>
-      <c r="E57" s="16">
-        <v>42.8</v>
-      </c>
-      <c r="F57" s="16">
-        <v>44.3</v>
-      </c>
-      <c r="G57" s="16">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="16">
-        <v>56.9</v>
-      </c>
-      <c r="C58" s="16">
-        <v>58.5</v>
-      </c>
-      <c r="D58" s="16">
-        <v>55.3</v>
-      </c>
-      <c r="E58" s="16">
-        <v>49.6</v>
-      </c>
-      <c r="F58" s="16">
-        <v>51.2</v>
-      </c>
-      <c r="G58" s="16">
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="16">
-        <v>47.6</v>
-      </c>
-      <c r="C59" s="16">
-        <v>47.6</v>
-      </c>
-      <c r="D59" s="16">
-        <v>49.3</v>
-      </c>
-      <c r="E59" s="16">
-        <v>49.5</v>
-      </c>
-      <c r="F59" s="16">
-        <v>50.6</v>
-      </c>
-      <c r="G59" s="16">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="16">
-        <v>55.1</v>
-      </c>
-      <c r="C60" s="16">
-        <v>54.2</v>
-      </c>
-      <c r="D60" s="16">
-        <v>49.2</v>
-      </c>
-      <c r="E60" s="16">
-        <v>50.6</v>
-      </c>
-      <c r="F60" s="16">
-        <v>50.4</v>
-      </c>
-      <c r="G60" s="16">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="16">
-        <v>46.3</v>
-      </c>
-      <c r="C61" s="16">
-        <v>48.9</v>
-      </c>
-      <c r="D61" s="16">
-        <v>44.4</v>
-      </c>
-      <c r="E61" s="16">
-        <v>48.5</v>
-      </c>
-      <c r="F61" s="16">
-        <v>49.7</v>
-      </c>
-      <c r="G61" s="16">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="16">
-        <v>44.5</v>
-      </c>
-      <c r="C62" s="16">
-        <v>47.6</v>
-      </c>
-      <c r="D62" s="16">
-        <v>47.4</v>
-      </c>
-      <c r="E62" s="16">
-        <v>48.3</v>
-      </c>
-      <c r="F62" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="G62" s="16">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="16">
-        <v>50.2</v>
-      </c>
-      <c r="C63" s="16">
-        <v>52.2</v>
-      </c>
-      <c r="D63" s="16">
-        <v>46.9</v>
-      </c>
-      <c r="E63" s="16">
-        <v>46.4</v>
-      </c>
-      <c r="F63" s="16">
-        <v>46.5</v>
-      </c>
-      <c r="G63" s="16">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="16">
-        <v>37</v>
-      </c>
-      <c r="C64" s="16">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D64" s="16">
-        <v>38.9</v>
-      </c>
-      <c r="E64" s="16">
-        <v>42.6</v>
-      </c>
-      <c r="F64" s="16">
-        <v>45</v>
-      </c>
-      <c r="G64" s="16">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="16">
-        <v>48.2</v>
-      </c>
-      <c r="C65" s="16">
-        <v>47.7</v>
-      </c>
-      <c r="D65" s="16">
-        <v>45.4</v>
-      </c>
-      <c r="E65" s="16">
-        <v>48.8</v>
-      </c>
-      <c r="F65" s="16">
-        <v>49.4</v>
-      </c>
-      <c r="G65" s="16">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="16">
-        <v>52.7</v>
-      </c>
-      <c r="C66" s="16">
-        <v>52</v>
-      </c>
-      <c r="D66" s="16">
-        <v>48.6</v>
-      </c>
-      <c r="E66" s="16">
-        <v>50.8</v>
-      </c>
-      <c r="F66" s="16">
-        <v>51.4</v>
-      </c>
-      <c r="G66" s="16">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="16">
-        <v>35.5</v>
-      </c>
-      <c r="C67" s="16">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D67" s="16">
-        <v>39</v>
-      </c>
-      <c r="E67" s="16">
-        <v>42.5</v>
-      </c>
-      <c r="F67" s="16">
-        <v>43</v>
-      </c>
-      <c r="G67" s="16">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="15">
-        <v>42.5</v>
-      </c>
-      <c r="C68" s="15">
-        <v>46</v>
-      </c>
-      <c r="D68" s="15">
-        <v>43.1</v>
-      </c>
-      <c r="E68" s="15">
-        <v>46</v>
-      </c>
-      <c r="F68" s="15">
-        <v>47.1</v>
-      </c>
-      <c r="G68" s="15">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="16">
-        <v>27.7</v>
-      </c>
-      <c r="C69" s="16">
-        <v>29.7</v>
-      </c>
-      <c r="D69" s="16">
-        <v>28.8</v>
-      </c>
-      <c r="E69" s="16">
-        <v>29.3</v>
-      </c>
-      <c r="F69" s="16">
-        <v>28.9</v>
-      </c>
-      <c r="G69" s="16">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="16">
-        <v>42.4</v>
-      </c>
-      <c r="C70" s="16">
-        <v>45.7</v>
-      </c>
-      <c r="D70" s="16">
-        <v>42.4</v>
-      </c>
-      <c r="E70" s="16">
-        <v>43.7</v>
-      </c>
-      <c r="F70" s="16">
-        <v>45.4</v>
-      </c>
-      <c r="G70" s="16">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="16">
-        <v>49</v>
-      </c>
-      <c r="C71" s="16">
-        <v>53.9</v>
-      </c>
-      <c r="D71" s="16">
-        <v>50.9</v>
-      </c>
-      <c r="E71" s="16">
-        <v>55.9</v>
-      </c>
-      <c r="F71" s="16">
-        <v>57.1</v>
-      </c>
-      <c r="G71" s="16">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="16">
-        <v>49.2</v>
-      </c>
-      <c r="C73" s="16">
-        <v>55.2</v>
-      </c>
-      <c r="D73" s="16">
-        <v>53.4</v>
-      </c>
-      <c r="E73" s="16">
-        <v>57.3</v>
-      </c>
-      <c r="F73" s="16">
-        <v>57.5</v>
-      </c>
-      <c r="G73" s="16">
-        <v>58.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="16">
-        <v>53</v>
-      </c>
-      <c r="C74" s="16">
-        <v>51.2</v>
-      </c>
-      <c r="D74" s="16">
-        <v>50.3</v>
-      </c>
-      <c r="E74" s="16">
-        <v>56.7</v>
-      </c>
-      <c r="F74" s="16">
-        <v>61</v>
-      </c>
-      <c r="G74" s="16">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="16">
-        <v>47.1</v>
-      </c>
-      <c r="C75" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="D75" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="E75" s="16">
-        <v>54.2</v>
-      </c>
-      <c r="F75" s="16">
-        <v>55.4</v>
-      </c>
-      <c r="G75" s="16">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="C76" s="16">
-        <v>43</v>
-      </c>
-      <c r="D76" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="E76" s="16">
-        <v>42.3</v>
-      </c>
-      <c r="F76" s="16">
-        <v>42.4</v>
-      </c>
-      <c r="G76" s="16">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="15">
-        <v>51.6</v>
-      </c>
-      <c r="C77" s="15">
-        <v>52.4</v>
-      </c>
-      <c r="D77" s="15">
-        <v>47</v>
-      </c>
-      <c r="E77" s="15">
-        <v>48.8</v>
-      </c>
-      <c r="F77" s="15">
-        <v>49.2</v>
-      </c>
-      <c r="G77" s="15">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="16">
-        <v>38.9</v>
-      </c>
-      <c r="C78" s="16">
-        <v>43.5</v>
-      </c>
-      <c r="D78" s="16">
-        <v>44.7</v>
-      </c>
-      <c r="E78" s="16">
-        <v>44.8</v>
-      </c>
-      <c r="F78" s="16">
-        <v>45.6</v>
-      </c>
-      <c r="G78" s="16">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="16">
-        <v>42.8</v>
-      </c>
-      <c r="C79" s="16">
-        <v>45.6</v>
-      </c>
-      <c r="D79" s="16">
-        <v>48.9</v>
-      </c>
-      <c r="E79" s="16">
-        <v>49.7</v>
-      </c>
-      <c r="F79" s="16">
-        <v>50.6</v>
-      </c>
-      <c r="G79" s="16">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="16">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C80" s="16">
-        <v>38.1</v>
-      </c>
-      <c r="D80" s="16">
-        <v>39</v>
-      </c>
-      <c r="E80" s="16">
-        <v>42.3</v>
-      </c>
-      <c r="F80" s="16">
-        <v>40.1</v>
-      </c>
-      <c r="G80" s="16">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="16">
-        <v>46.7</v>
-      </c>
-      <c r="C81" s="16">
-        <v>48.7</v>
-      </c>
-      <c r="D81" s="16">
-        <v>42.9</v>
-      </c>
-      <c r="E81" s="16">
-        <v>42.6</v>
-      </c>
-      <c r="F81" s="16">
-        <v>43.4</v>
-      </c>
-      <c r="G81" s="16">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="16">
-        <v>50.3</v>
-      </c>
-      <c r="C82" s="16">
-        <v>53.7</v>
-      </c>
-      <c r="D82" s="16">
-        <v>47.6</v>
-      </c>
-      <c r="E82" s="16">
-        <v>49.9</v>
-      </c>
-      <c r="F82" s="16">
-        <v>50.6</v>
-      </c>
-      <c r="G82" s="16">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="16">
-        <v>47.5</v>
-      </c>
-      <c r="C83" s="16">
-        <v>49.9</v>
-      </c>
-      <c r="D83" s="16">
-        <v>45.5</v>
-      </c>
-      <c r="E83" s="16">
-        <v>49</v>
-      </c>
-      <c r="F83" s="16">
-        <v>49.2</v>
-      </c>
-      <c r="G83" s="16">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="16">
-        <v>47</v>
-      </c>
-      <c r="C84" s="16">
-        <v>47.7</v>
-      </c>
-      <c r="D84" s="16">
-        <v>42.9</v>
-      </c>
-      <c r="E84" s="16">
-        <v>43.8</v>
-      </c>
-      <c r="F84" s="16">
-        <v>44.2</v>
-      </c>
-      <c r="G84" s="16">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="16">
-        <v>61.7</v>
-      </c>
-      <c r="C85" s="16">
-        <v>58.3</v>
-      </c>
-      <c r="D85" s="16">
-        <v>51.6</v>
-      </c>
-      <c r="E85" s="16">
-        <v>54.6</v>
-      </c>
-      <c r="F85" s="16">
-        <v>56</v>
-      </c>
-      <c r="G85" s="16">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="16">
-        <v>55.8</v>
-      </c>
-      <c r="C86" s="16">
-        <v>53.9</v>
-      </c>
-      <c r="D86" s="16">
-        <v>50.6</v>
-      </c>
-      <c r="E86" s="16">
-        <v>50.9</v>
-      </c>
-      <c r="F86" s="16">
-        <v>51.2</v>
-      </c>
-      <c r="G86" s="16">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="16">
-        <v>67.3</v>
-      </c>
-      <c r="C87" s="16">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D87" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="E87" s="16">
-        <v>56.4</v>
-      </c>
-      <c r="F87" s="16">
-        <v>53.1</v>
-      </c>
-      <c r="G87" s="16">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="15">
-        <v>52.3</v>
-      </c>
-      <c r="C88" s="15">
-        <v>54.2</v>
-      </c>
-      <c r="D88" s="15">
-        <v>51.4</v>
-      </c>
-      <c r="E88" s="15">
-        <v>53.9</v>
-      </c>
-      <c r="F88" s="15">
-        <v>54</v>
-      </c>
-      <c r="G88" s="15">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="16">
-        <v>38.6</v>
-      </c>
-      <c r="C89" s="16">
-        <v>41.3</v>
-      </c>
-      <c r="D89" s="16">
-        <v>45.6</v>
-      </c>
-      <c r="E89" s="16">
-        <v>45.1</v>
-      </c>
-      <c r="F89" s="16">
-        <v>44.7</v>
-      </c>
-      <c r="G89" s="16">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="16">
-        <v>49.3</v>
-      </c>
-      <c r="C90" s="16">
-        <v>57.1</v>
-      </c>
-      <c r="D90" s="16">
-        <v>55.2</v>
-      </c>
-      <c r="E90" s="16">
-        <v>61.6</v>
-      </c>
-      <c r="F90" s="16">
-        <v>60.3</v>
-      </c>
-      <c r="G90" s="16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="16">
-        <v>52.5</v>
-      </c>
-      <c r="C91" s="16">
-        <v>56.1</v>
-      </c>
-      <c r="D91" s="16">
-        <v>48.8</v>
-      </c>
-      <c r="E91" s="16">
-        <v>50.9</v>
-      </c>
-      <c r="F91" s="16">
-        <v>52.3</v>
-      </c>
-      <c r="G91" s="16">
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="16">
-        <v>53.2</v>
-      </c>
-      <c r="C92" s="16">
-        <v>49.3</v>
-      </c>
-      <c r="D92" s="16">
-        <v>53.6</v>
-      </c>
-      <c r="E92" s="16">
-        <v>52.9</v>
-      </c>
-      <c r="F92" s="16">
-        <v>52.5</v>
-      </c>
-      <c r="G92" s="16">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="C93" s="16">
-        <v>52.7</v>
-      </c>
-      <c r="D93" s="16">
-        <v>50</v>
-      </c>
-      <c r="E93" s="16">
-        <v>51.8</v>
-      </c>
-      <c r="F93" s="16">
-        <v>51.1</v>
-      </c>
-      <c r="G93" s="16">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="16">
-        <v>60.5</v>
-      </c>
-      <c r="C94" s="16">
-        <v>61.1</v>
-      </c>
-      <c r="D94" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="E94" s="16">
-        <v>56.4</v>
-      </c>
-      <c r="F94" s="16">
-        <v>57.5</v>
-      </c>
-      <c r="G94" s="16">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="16">
-        <v>60.7</v>
-      </c>
-      <c r="C95" s="16">
-        <v>62.8</v>
-      </c>
-      <c r="D95" s="16">
-        <v>55.4</v>
-      </c>
-      <c r="E95" s="16">
-        <v>54.9</v>
-      </c>
-      <c r="F95" s="16">
-        <v>55.4</v>
-      </c>
-      <c r="G95" s="16">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="16">
-        <v>55.2</v>
-      </c>
-      <c r="C96" s="16">
-        <v>55.6</v>
-      </c>
-      <c r="D96" s="16">
-        <v>61</v>
-      </c>
-      <c r="E96" s="16">
-        <v>62.2</v>
-      </c>
-      <c r="F96" s="16">
-        <v>62.4</v>
-      </c>
-      <c r="G96" s="16">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="16">
-        <v>44</v>
-      </c>
-      <c r="C97" s="16">
-        <v>49.1</v>
-      </c>
-      <c r="D97" s="16">
-        <v>54.1</v>
-      </c>
-      <c r="E97" s="16">
-        <v>63.6</v>
-      </c>
-      <c r="F97" s="16">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="G97" s="16">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="16">
-        <v>37</v>
-      </c>
-      <c r="C98" s="16">
-        <v>35.4</v>
-      </c>
-      <c r="D98" s="16">
-        <v>37.9</v>
-      </c>
-      <c r="E98" s="16">
-        <v>38</v>
-      </c>
-      <c r="F98" s="16">
-        <v>37.6</v>
-      </c>
-      <c r="G98" s="16">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="17">
-        <v>78.8</v>
-      </c>
-      <c r="C99" s="17">
-        <v>76.7</v>
-      </c>
-      <c r="D99" s="17">
-        <v>65</v>
-      </c>
-      <c r="E99" s="17">
-        <v>71</v>
-      </c>
-      <c r="F99" s="17">
-        <v>73.7</v>
-      </c>
-      <c r="G99" s="17">
-        <v>74.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -10976,326 +10760,556 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="15">
-        <v>54.3</v>
-      </c>
-      <c r="C1" s="15">
-        <v>57.8</v>
-      </c>
-      <c r="D1" s="15">
-        <v>54.5</v>
-      </c>
-      <c r="E1" s="15">
-        <v>59.8</v>
-      </c>
-      <c r="F1" s="15">
-        <v>61.6</v>
-      </c>
-      <c r="G1" s="15">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="16">
-        <v>50.5</v>
-      </c>
-      <c r="C2" s="16">
-        <v>50.4</v>
-      </c>
-      <c r="D2" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="E2" s="16">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>51.7</v>
       </c>
-      <c r="F2" s="16">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>52.9</v>
       </c>
-      <c r="G2" s="16">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="16">
-        <v>45</v>
-      </c>
-      <c r="C3" s="16">
-        <v>47.5</v>
-      </c>
-      <c r="D3" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="E3" s="16">
-        <v>51.4</v>
-      </c>
-      <c r="F3" s="16">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
         <v>51</v>
       </c>
-      <c r="G3" s="16">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="16">
-        <v>53.2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>56.6</v>
-      </c>
-      <c r="D4" s="16">
-        <v>53.2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>55.5</v>
-      </c>
-      <c r="F4" s="16">
-        <v>54.9</v>
-      </c>
-      <c r="G4" s="16">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="16">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
         <v>39.1</v>
       </c>
-      <c r="C6" s="16">
-        <v>44.4</v>
-      </c>
-      <c r="D6" s="16">
-        <v>46.5</v>
-      </c>
-      <c r="E6" s="16">
-        <v>51.5</v>
-      </c>
-      <c r="F6" s="16">
-        <v>51.1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="16">
-        <v>53.7</v>
-      </c>
-      <c r="C7" s="16">
-        <v>57</v>
-      </c>
-      <c r="D7" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="E7" s="16">
-        <v>55.6</v>
-      </c>
-      <c r="F7" s="16">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="16">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="16">
         <v>55</v>
       </c>
-      <c r="G7" s="16">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="16">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="C8" s="16">
-        <v>34.6</v>
-      </c>
-      <c r="D8" s="16">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E8" s="16">
-        <v>35.5</v>
-      </c>
-      <c r="F8" s="16">
-        <v>36.1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="16">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C9" s="16">
-        <v>34.5</v>
-      </c>
-      <c r="D9" s="16">
-        <v>44.6</v>
-      </c>
-      <c r="E9" s="16">
-        <v>46.5</v>
-      </c>
-      <c r="F9" s="16">
-        <v>46.6</v>
-      </c>
-      <c r="G9" s="16">
-        <v>48.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="16">
-        <v>30.6</v>
-      </c>
-      <c r="C10" s="16">
-        <v>34.4</v>
-      </c>
-      <c r="D10" s="16">
-        <v>33.6</v>
-      </c>
-      <c r="E10" s="16">
-        <v>37.1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>37.1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="16">
-        <v>50.1</v>
-      </c>
-      <c r="C11" s="16">
-        <v>57.4</v>
-      </c>
-      <c r="D11" s="16">
-        <v>53.3</v>
-      </c>
-      <c r="E11" s="16">
-        <v>51.7</v>
-      </c>
-      <c r="F11" s="16">
-        <v>51.1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C12" s="16">
-        <v>41.3</v>
-      </c>
-      <c r="D12" s="16">
-        <v>43</v>
-      </c>
-      <c r="E12" s="16">
-        <v>43.4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>42.5</v>
-      </c>
-      <c r="G12" s="16">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C13" s="16">
-        <v>34.6</v>
-      </c>
-      <c r="D13" s="16">
-        <v>34.1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16">
-        <v>32.4</v>
-      </c>
-      <c r="G13" s="16">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16">
-        <v>80</v>
-      </c>
-      <c r="C14" s="16">
-        <v>84.8</v>
-      </c>
-      <c r="D14" s="16">
-        <v>73.8</v>
-      </c>
-      <c r="E14" s="16">
-        <v>84.9</v>
-      </c>
-      <c r="F14" s="16">
-        <v>89.3</v>
-      </c>
-      <c r="G14" s="16">
-        <v>91.6</v>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="16">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16">
+        <v>72.900000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -11304,17 +11318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -11337,7 +11351,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -11361,7 +11375,7 @@
       </c>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -11385,7 +11399,7 @@
       </c>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -11409,7 +11423,7 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -11433,7 +11447,7 @@
       </c>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -11457,7 +11471,7 @@
       </c>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -11481,7 +11495,7 @@
       </c>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -11504,7 +11518,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -11527,7 +11541,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -11550,7 +11564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -11573,7 +11587,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -11596,7 +11610,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -11619,7 +11633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -11642,7 +11656,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -11665,7 +11679,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -11688,7 +11702,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -11711,7 +11725,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -11734,7 +11748,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -11763,16 +11777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>108</v>
       </c>
@@ -11780,7 +11794,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2005</v>
       </c>
@@ -11788,7 +11802,7 @@
         <v>45.244444444444454</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2010</v>
       </c>
@@ -11796,7 +11810,7 @@
         <v>46.655555555555559</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2015</v>
       </c>
@@ -11804,7 +11818,7 @@
         <v>43.216666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2019</v>
       </c>
@@ -11812,7 +11826,7 @@
         <v>45.24444444444444</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2020</v>
       </c>
@@ -11820,7 +11834,7 @@
         <v>46.611111111111107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2021</v>
       </c>
@@ -11835,14 +11849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -11865,7 +11879,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -11888,7 +11902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
